--- a/App/delib.xlsx
+++ b/App/delib.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
-  <si>
-    <t>2024/2025</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+  <si>
+    <t>2023/2024</t>
   </si>
   <si>
     <t>08/06/2023</t>
   </si>
   <si>
-    <t>CP2</t>
+    <t>CP1</t>
   </si>
   <si>
     <t>Classe</t>
@@ -47,25 +47,43 @@
     <t>PRENOM</t>
   </si>
   <si>
-    <t>K133341333</t>
-  </si>
-  <si>
-    <t>Benabbou2</t>
-  </si>
-  <si>
-    <t>Oussama2</t>
-  </si>
-  <si>
-    <t>M133341333</t>
-  </si>
-  <si>
-    <t>Lfelous</t>
-  </si>
-  <si>
-    <t>Rim</t>
-  </si>
-  <si>
-    <t>Algèbre 3 : Algèbre quadratique</t>
+    <t>J133341333</t>
+  </si>
+  <si>
+    <t>Achbouq</t>
+  </si>
+  <si>
+    <t>Housni</t>
+  </si>
+  <si>
+    <t>A133341333</t>
+  </si>
+  <si>
+    <t>Yamani</t>
+  </si>
+  <si>
+    <t>Jamal</t>
+  </si>
+  <si>
+    <t>B133341333</t>
+  </si>
+  <si>
+    <t>Ferdous</t>
+  </si>
+  <si>
+    <t>Kamal</t>
+  </si>
+  <si>
+    <t>C133341333</t>
+  </si>
+  <si>
+    <t>Touhami</t>
+  </si>
+  <si>
+    <t>Badr</t>
+  </si>
+  <si>
+    <t>Algèbre 1 : Algèbre de base</t>
   </si>
   <si>
     <t>Moyenne</t>
@@ -74,70 +92,64 @@
     <t>Validation</t>
   </si>
   <si>
-    <t>Analyse 3 : Fonctions de plusieurs variables</t>
-  </si>
-  <si>
-    <t>Informatique 2 : Programmation C</t>
-  </si>
-  <si>
-    <t>TEC Français 3</t>
-  </si>
-  <si>
-    <t>TEC Anglais 3</t>
+    <t>Analyse 1 : Analyse réelle</t>
+  </si>
+  <si>
+    <t>Informatique 1 : Initiation à l'informatique</t>
+  </si>
+  <si>
+    <t>TEC Français 1</t>
+  </si>
+  <si>
+    <t>TEC Anglais 1</t>
   </si>
   <si>
     <t>Moyen</t>
   </si>
   <si>
-    <t>Langues et communications 3 : TEC Français &amp; TEC Anglais</t>
-  </si>
-  <si>
-    <t>Mécanique 2 : Mécanique du solide</t>
-  </si>
-  <si>
-    <t>Electrocinétique</t>
-  </si>
-  <si>
-    <t>Electromagnétisme</t>
-  </si>
-  <si>
-    <t>Physique 3 : Electrocinétique et Electromagnétisme</t>
-  </si>
-  <si>
-    <t>Analyse 4 : Intégrales et formes différentielles</t>
-  </si>
-  <si>
-    <t>Thermochimie</t>
-  </si>
-  <si>
-    <t>Cristallochimie</t>
-  </si>
-  <si>
-    <t>Chimie 2 : Thermochimie &amp; Cristallochimie</t>
-  </si>
-  <si>
-    <t>Electronique : Electronique analogique</t>
-  </si>
-  <si>
-    <t>Informatique 3 : Outils informatique</t>
-  </si>
-  <si>
-    <t>Probabilités et statistiques descriptives</t>
-  </si>
-  <si>
-    <t>Analyse numérique</t>
-  </si>
-  <si>
-    <t>Mathématiques appliquées : Probabilités et statistiques descriptives &amp; Analyse numérique</t>
-  </si>
-  <si>
-    <t>Thermodynamique</t>
-  </si>
-  <si>
-    <t>Statique des fluides</t>
-  </si>
-  <si>
-    <t>Physique 4 : Thermodynamique et Statique des fluides</t>
+    <t>Langues et communications 1 : TEC Français &amp; TEC Anglais</t>
+  </si>
+  <si>
+    <t>Mécanique 1 : Mécanique du point</t>
+  </si>
+  <si>
+    <t>Electrostatique</t>
+  </si>
+  <si>
+    <t>Magnétostatique</t>
+  </si>
+  <si>
+    <t>Physique 1 : Electrostatique et magnétostatique</t>
+  </si>
+  <si>
+    <t>Algèbre 2 : Algèbre linéaire</t>
+  </si>
+  <si>
+    <t>Analyse 2 : Equations différentielles et séries</t>
+  </si>
+  <si>
+    <t>Atomistique</t>
+  </si>
+  <si>
+    <t>Liaisons chimiques</t>
+  </si>
+  <si>
+    <t>Chimie 1 : Atomistique &amp; Liaisons chimiques</t>
+  </si>
+  <si>
+    <t>Géologie : Géologie générale</t>
+  </si>
+  <si>
+    <t>TEC Français 2</t>
+  </si>
+  <si>
+    <t>TEC Anglais 2</t>
+  </si>
+  <si>
+    <t>Langues et communications 2 : TEC Français &amp; TEC Anglais</t>
+  </si>
+  <si>
+    <t>Physique 2 : Optique</t>
   </si>
   <si>
     <t>Rang</t>
@@ -175,9 +187,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="22"/>
-      </patternFill>
+      <patternFill patternType="solid"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -227,16 +237,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -245,7 +255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -286,12 +296,12 @@
       <c r="Q3" s="4"/>
       <c r="U3" s="4"/>
       <c r="W3" s="4"/>
-      <c r="AA3" s="4"/>
+      <c r="Y3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AI3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="3">
@@ -307,68 +317,66 @@
         <v>9</v>
       </c>
       <c r="E4" t="s" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" t="s" s="3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" t="s" s="3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" t="s" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" t="s" s="3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" t="s" s="3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" t="s" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="V4" s="3"/>
       <c r="W4" t="s" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="Y4" t="s" s="3">
+        <v>39</v>
+      </c>
       <c r="Z4" s="3"/>
-      <c r="AA4" t="s" s="3">
-        <v>33</v>
-      </c>
+      <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" t="s" s="3">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4" t="s" s="3">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
       <c r="AI4" t="s" s="3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="AN4" t="s" s="3">
-        <v>41</v>
+      <c r="AK4" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="s" s="3">
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -377,113 +385,107 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" t="s" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s" s="3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="N5" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s" s="3">
-        <v>17</v>
-      </c>
       <c r="P5" t="s" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s" s="3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R5" t="s" s="3">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="S5" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="T5" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="U5" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="T5" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="U5" t="s" s="3">
-        <v>17</v>
-      </c>
       <c r="V5" t="s" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="W5" t="s" s="3">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="X5" t="s" s="3">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="Z5" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="AA5" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="AB5" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="AC5" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="Z5" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="AA5" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="AC5" t="s" s="3">
-        <v>17</v>
-      </c>
       <c r="AD5" t="s" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="s" s="3">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AF5" t="s" s="3">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AG5" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="AH5" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="AI5" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="AH5" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="AI5" t="s" s="3">
-        <v>38</v>
-      </c>
       <c r="AJ5" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="AK5" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="AL5" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="n" s="1">
-        <v>101.0</v>
+        <v>100.0</v>
       </c>
       <c r="B6" t="s" s="1">
         <v>10</v>
@@ -495,28 +497,28 @@
         <v>12</v>
       </c>
       <c r="E6" t="n" s="1">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="F6" s="1">
         <f>IF(E6&lt;10,"NV","V")</f>
       </c>
       <c r="G6" t="n" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="H6" s="1">
         <f>IF(G6&lt;10,"NV","V")</f>
       </c>
       <c r="I6" t="n" s="1">
-        <v>-1.0</v>
+        <v>12.0</v>
       </c>
       <c r="J6" s="1">
         <f>IF(I6&lt;10,"NV","V")</f>
       </c>
       <c r="K6" t="n" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="L6" t="n" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="M6" s="1">
         <f>AVERAGE(K6,L6)</f>
@@ -525,16 +527,16 @@
         <f>IF(M6&lt;10,"NV","V")</f>
       </c>
       <c r="O6" t="n" s="1">
-        <v>-1.0</v>
+        <v>13.0</v>
       </c>
       <c r="P6" s="1">
         <f>IF(O6&lt;10,"NV","V")</f>
       </c>
       <c r="Q6" t="n" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="R6" t="n" s="1">
-        <v>-1.0</v>
+        <v>12.0</v>
       </c>
       <c r="S6" s="1">
         <f>AVERAGE(Q6,R6)</f>
@@ -543,40 +545,40 @@
         <f>IF(S6&lt;10,"NV","V")</f>
       </c>
       <c r="U6" t="n" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="V6" s="1">
         <f>IF(U6&lt;10,"NV","V")</f>
       </c>
       <c r="W6" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="X6" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="Y6" s="1">
-        <f>AVERAGE(W6,X6)</f>
-      </c>
-      <c r="Z6" s="1">
-        <f>IF(Y6&lt;10,"NV","V")</f>
-      </c>
-      <c r="AA6" t="n" s="1">
-        <v>-1.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="X6" s="1">
+        <f>IF(W6&lt;10,"NV","V")</f>
+      </c>
+      <c r="Y6" t="n" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="Z6" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="AA6" s="1">
+        <f>AVERAGE(Y6,Z6)</f>
       </c>
       <c r="AB6" s="1">
         <f>IF(AA6&lt;10,"NV","V")</f>
       </c>
       <c r="AC6" t="n" s="1">
-        <v>-1.0</v>
+        <v>11.0</v>
       </c>
       <c r="AD6" s="1">
         <f>IF(AC6&lt;10,"NV","V")</f>
       </c>
       <c r="AE6" t="n" s="1">
-        <v>-1.0</v>
+        <v>12.0</v>
       </c>
       <c r="AF6" t="n" s="1">
-        <v>-1.0</v>
+        <v>12.0</v>
       </c>
       <c r="AG6" s="1">
         <f>AVERAGE(AE6,AF6)</f>
@@ -585,27 +587,21 @@
         <f>IF(AG6&lt;10,"NV","V")</f>
       </c>
       <c r="AI6" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="AJ6" t="n" s="1">
-        <v>-1.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>IF(AI6&lt;10,"NV","V")</f>
       </c>
       <c r="AK6" s="1">
-        <f>AVERAGE(AI6,AJ6)</f>
+        <f>AVERAGE(E6,G6,I6,M6,O6,S6,U6,W6,AA6,AC6,AG6,AI6)</f>
       </c>
       <c r="AL6" s="1">
-        <f>IF(AK6&lt;10,"NV","V")</f>
-      </c>
-      <c r="AM6" s="1">
-        <f>AVERAGE(E6,G6,I6,M6,O6,S6,U6,Y6,AA6,AC6,AG6,AK6)</f>
-      </c>
-      <c r="AN6" s="1">
-        <f>RANK(AM6,AM6:AM7)</f>
+        <f>RANK(AK6,AK6:AK9)</f>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>102.0</v>
+        <v>103.0</v>
       </c>
       <c r="B7" t="s" s="1">
         <v>13</v>
@@ -673,17 +669,17 @@
       <c r="W7" t="n" s="1">
         <v>-1.0</v>
       </c>
-      <c r="X7" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="Y7" s="1">
-        <f>AVERAGE(W7,X7)</f>
-      </c>
-      <c r="Z7" s="1">
-        <f>IF(Y7&lt;10,"NV","V")</f>
-      </c>
-      <c r="AA7" t="n" s="1">
-        <v>-1.0</v>
+      <c r="X7" s="1">
+        <f>IF(W7&lt;10,"NV","V")</f>
+      </c>
+      <c r="Y7" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="Z7" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="AA7" s="1">
+        <f>AVERAGE(Y7,Z7)</f>
       </c>
       <c r="AB7" s="1">
         <f>IF(AA7&lt;10,"NV","V")</f>
@@ -709,20 +705,246 @@
       <c r="AI7" t="n" s="1">
         <v>-1.0</v>
       </c>
-      <c r="AJ7" t="n" s="1">
-        <v>-1.0</v>
+      <c r="AJ7" s="1">
+        <f>IF(AI7&lt;10,"NV","V")</f>
       </c>
       <c r="AK7" s="1">
-        <f>AVERAGE(AI7,AJ7)</f>
+        <f>AVERAGE(E7,G7,I7,M7,O7,S7,U7,W7,AA7,AC7,AG7,AI7)</f>
       </c>
       <c r="AL7" s="1">
-        <f>IF(AK7&lt;10,"NV","V")</f>
-      </c>
-      <c r="AM7" s="1">
-        <f>AVERAGE(E7,G7,I7,M7,O7,S7,U7,Y7,AA7,AC7,AG7,AK7)</f>
-      </c>
-      <c r="AN7" s="1">
-        <f>RANK(AM7,AM6:AM7)</f>
+        <f>RANK(AK7,AK6:AK9)</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="1">
+        <v>104.0</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F8" s="1">
+        <f>IF(E8&lt;10,"NV","V")</f>
+      </c>
+      <c r="G8" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>IF(G8&lt;10,"NV","V")</f>
+      </c>
+      <c r="I8" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="J8" s="1">
+        <f>IF(I8&lt;10,"NV","V")</f>
+      </c>
+      <c r="K8" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="L8" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="M8" s="1">
+        <f>AVERAGE(K8,L8)</f>
+      </c>
+      <c r="N8" s="1">
+        <f>IF(M8&lt;10,"NV","V")</f>
+      </c>
+      <c r="O8" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="P8" s="1">
+        <f>IF(O8&lt;10,"NV","V")</f>
+      </c>
+      <c r="Q8" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="R8" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="S8" s="1">
+        <f>AVERAGE(Q8,R8)</f>
+      </c>
+      <c r="T8" s="1">
+        <f>IF(S8&lt;10,"NV","V")</f>
+      </c>
+      <c r="U8" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="V8" s="1">
+        <f>IF(U8&lt;10,"NV","V")</f>
+      </c>
+      <c r="W8" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="X8" s="1">
+        <f>IF(W8&lt;10,"NV","V")</f>
+      </c>
+      <c r="Y8" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="Z8" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="AA8" s="1">
+        <f>AVERAGE(Y8,Z8)</f>
+      </c>
+      <c r="AB8" s="1">
+        <f>IF(AA8&lt;10,"NV","V")</f>
+      </c>
+      <c r="AC8" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="AD8" s="1">
+        <f>IF(AC8&lt;10,"NV","V")</f>
+      </c>
+      <c r="AE8" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="AF8" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="AG8" s="1">
+        <f>AVERAGE(AE8,AF8)</f>
+      </c>
+      <c r="AH8" s="1">
+        <f>IF(AG8&lt;10,"NV","V")</f>
+      </c>
+      <c r="AI8" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f>IF(AI8&lt;10,"NV","V")</f>
+      </c>
+      <c r="AK8" s="1">
+        <f>AVERAGE(E8,G8,I8,M8,O8,S8,U8,W8,AA8,AC8,AG8,AI8)</f>
+      </c>
+      <c r="AL8" s="1">
+        <f>RANK(AK8,AK6:AK9)</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="E9" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F9" s="1">
+        <f>IF(E9&lt;10,"NV","V")</f>
+      </c>
+      <c r="G9" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>IF(G9&lt;10,"NV","V")</f>
+      </c>
+      <c r="I9" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="J9" s="1">
+        <f>IF(I9&lt;10,"NV","V")</f>
+      </c>
+      <c r="K9" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="L9" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="M9" s="1">
+        <f>AVERAGE(K9,L9)</f>
+      </c>
+      <c r="N9" s="1">
+        <f>IF(M9&lt;10,"NV","V")</f>
+      </c>
+      <c r="O9" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="P9" s="1">
+        <f>IF(O9&lt;10,"NV","V")</f>
+      </c>
+      <c r="Q9" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="R9" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="S9" s="1">
+        <f>AVERAGE(Q9,R9)</f>
+      </c>
+      <c r="T9" s="1">
+        <f>IF(S9&lt;10,"NV","V")</f>
+      </c>
+      <c r="U9" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="V9" s="1">
+        <f>IF(U9&lt;10,"NV","V")</f>
+      </c>
+      <c r="W9" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="X9" s="1">
+        <f>IF(W9&lt;10,"NV","V")</f>
+      </c>
+      <c r="Y9" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="Z9" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="AA9" s="1">
+        <f>AVERAGE(Y9,Z9)</f>
+      </c>
+      <c r="AB9" s="1">
+        <f>IF(AA9&lt;10,"NV","V")</f>
+      </c>
+      <c r="AC9" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="AD9" s="1">
+        <f>IF(AC9&lt;10,"NV","V")</f>
+      </c>
+      <c r="AE9" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="AF9" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="AG9" s="1">
+        <f>AVERAGE(AE9,AF9)</f>
+      </c>
+      <c r="AH9" s="1">
+        <f>IF(AG9&lt;10,"NV","V")</f>
+      </c>
+      <c r="AI9" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <f>IF(AI9&lt;10,"NV","V")</f>
+      </c>
+      <c r="AK9" s="1">
+        <f>AVERAGE(E9,G9,I9,M9,O9,S9,U9,W9,AA9,AC9,AG9,AI9)</f>
+      </c>
+      <c r="AL9" s="1">
+        <f>RANK(AK9,AK6:AK9)</f>
       </c>
     </row>
   </sheetData>
@@ -755,14 +977,14 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="Y4:AB4"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AC3:AD3"/>
@@ -771,10 +993,10 @@
     <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="AE3:AH3"/>
     <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI3:AL3"/>
-    <mergeCell ref="AI4:AL4"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AI4:AJ4"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
